--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251101_201206.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251101_201206.xlsx
@@ -2773,7 +2773,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
